--- a/history/main.xlsx
+++ b/history/main.xlsx
@@ -1,19 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/n.devs/GitHub/balckboard-th/html.mail.hello-teacher/history/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5AB545-E2CB-0343-A6DE-ECAE4A46F973}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>ลำดับ</t>
+  </si>
+  <si>
+    <t>ชื่อ</t>
+  </si>
+  <si>
+    <t>ประเภท</t>
+  </si>
+  <si>
+    <t>อีเมล</t>
+  </si>
+  <si>
+    <t>สถานะ</t>
+  </si>
+  <si>
+    <t>เวลา</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -50,6 +81,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,117 +413,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>ลำดับ</v>
-      </c>
-      <c r="B1" t="str">
-        <v>ชื่อ</v>
-      </c>
-      <c r="C1" t="str">
-        <v>ประเภท</v>
-      </c>
-      <c r="D1" t="str">
-        <v>อีเมล</v>
-      </c>
-      <c r="E1" t="str">
-        <v>สถานะ</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>Test1</v>
-      </c>
-      <c r="C2" t="str">
-        <v>ติวเตอร์</v>
-      </c>
-      <c r="D2" t="str">
-        <v>viligoy16@gmail.com</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>Testice</v>
-      </c>
-      <c r="C3" t="str">
-        <v>สถาบัน</v>
-      </c>
-      <c r="D3" t="str">
-        <v>iceberg2563@gmail.com</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <v>Test3</v>
-      </c>
-      <c r="C4" t="str">
-        <v>ติวเตอร์</v>
-      </c>
-      <c r="D4" t="str">
-        <v>wissawa.wat@gmail.com</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
-        <v>nut</v>
-      </c>
-      <c r="C5" t="str">
-        <v>ติวเตอร์</v>
-      </c>
-      <c r="D5" t="str">
-        <v>n.psk260340@gmail.com</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" t="str">
-        <v>tong</v>
-      </c>
-      <c r="C6" t="str">
-        <v>ติวเตอร์</v>
-      </c>
-      <c r="D6" t="str">
-        <v>kanyahosakul@gmail.com</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
+    <ignoredError sqref="A1:F1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/history/main.xlsx
+++ b/history/main.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/n.devs/GitHub/balckboard-th/html.mail.hello-teacher/history/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/n.devs/GitHub/balckboard-th/send-email-all/history/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5AB545-E2CB-0343-A6DE-ECAE4A46F973}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203C3884-4CF8-E049-8E3C-23150021D74A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="H7" sqref="A2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/history/main.xlsx
+++ b/history/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/n.devs/GitHub/balckboard-th/send-email-all/history/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203C3884-4CF8-E049-8E3C-23150021D74A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5159A77C-C9CA-E746-83E1-9A38434FD487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="A2:H7"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/history/main.xlsx
+++ b/history/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/n.devs/GitHub/balckboard-th/send-email-all/history/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5159A77C-C9CA-E746-83E1-9A38434FD487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24EA8E1-6A7E-C545-804F-D80088B156F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
